--- a/cisa_essential.xlsx
+++ b/cisa_essential.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Admin\covid\orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\mobility\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7763"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,11 +377,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D632"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -462,6 +460,12 @@
       <c r="A6" s="3">
         <v>11142</v>
       </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
@@ -694,6 +698,9 @@
       <c r="A23" s="3">
         <v>2121</v>
       </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
@@ -705,6 +712,9 @@
       <c r="A24" s="3">
         <v>2122</v>
       </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
@@ -716,6 +726,9 @@
       <c r="A25" s="3">
         <v>2123</v>
       </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
@@ -755,6 +768,9 @@
       <c r="A28" s="3">
         <v>213113</v>
       </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
@@ -766,6 +782,9 @@
       <c r="A29" s="3">
         <v>213114</v>
       </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
@@ -777,6 +796,9 @@
       <c r="A30" s="3">
         <v>213115</v>
       </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
       <c r="C30" s="4">
         <v>1</v>
       </c>
@@ -830,6 +852,9 @@
       <c r="A34" s="3">
         <v>2361</v>
       </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
@@ -841,6 +866,12 @@
       <c r="A35" s="3">
         <v>2362</v>
       </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -863,6 +894,9 @@
       <c r="A37" s="3">
         <v>2372</v>
       </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
@@ -902,6 +936,9 @@
       <c r="A40" s="3">
         <v>2381</v>
       </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
       <c r="C40" s="4">
         <v>1</v>
       </c>
@@ -927,6 +964,9 @@
       <c r="A42" s="3">
         <v>2383</v>
       </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
@@ -938,6 +978,9 @@
       <c r="A43" s="3">
         <v>2389</v>
       </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
@@ -1089,61 +1132,169 @@
       <c r="A54" s="3">
         <v>3122</v>
       </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>3131</v>
       </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>3132</v>
       </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>3133</v>
       </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>3141</v>
       </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>3149</v>
       </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>3151</v>
       </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>3152</v>
       </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>3159</v>
       </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>3161</v>
       </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>3162</v>
       </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>3169</v>
       </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
@@ -1247,6 +1398,15 @@
       <c r="A73" s="3">
         <v>3231</v>
       </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
@@ -1266,6 +1426,9 @@
       <c r="A75" s="3">
         <v>324121</v>
       </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
@@ -1277,6 +1440,9 @@
       <c r="A76" s="3">
         <v>324122</v>
       </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
@@ -1288,6 +1454,12 @@
       <c r="A77" s="3">
         <v>324191</v>
       </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
@@ -1296,6 +1468,12 @@
       <c r="A78" s="3">
         <v>324199</v>
       </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
       <c r="D78" s="4">
         <v>1</v>
       </c>
@@ -1360,6 +1538,9 @@
       <c r="A83" s="3">
         <v>3255</v>
       </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
@@ -1385,6 +1566,9 @@
       <c r="A85" s="3">
         <v>325910</v>
       </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
@@ -1410,16 +1594,43 @@
       <c r="A87" s="3">
         <v>325991</v>
       </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>325992</v>
       </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>325998</v>
       </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
@@ -1453,16 +1664,37 @@
       <c r="A92">
         <v>32622</v>
       </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>32629</v>
       </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>32711</v>
       </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
       <c r="C94" s="4">
         <v>1</v>
       </c>
@@ -1474,6 +1706,9 @@
       <c r="A95" s="3">
         <v>32712</v>
       </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
       <c r="C95" s="4">
         <v>1</v>
       </c>
@@ -1485,6 +1720,9 @@
       <c r="A96" s="3">
         <v>327211</v>
       </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
       <c r="C96" s="4">
         <v>1</v>
       </c>
@@ -1496,6 +1734,9 @@
       <c r="A97" s="3">
         <v>327212</v>
       </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
       <c r="C97" s="4">
         <v>1</v>
       </c>
@@ -1521,6 +1762,9 @@
       <c r="A99" s="3">
         <v>327215</v>
       </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
@@ -1532,6 +1776,9 @@
       <c r="A100" s="3">
         <v>3273</v>
       </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
       <c r="C100" s="4">
         <v>1</v>
       </c>
@@ -1543,6 +1790,9 @@
       <c r="A101" s="3">
         <v>3274</v>
       </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
       <c r="C101" s="4">
         <v>1</v>
       </c>
@@ -1554,6 +1804,9 @@
       <c r="A102" s="3">
         <v>3279</v>
       </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
       <c r="C102" s="4">
         <v>1</v>
       </c>
@@ -1565,6 +1818,9 @@
       <c r="A103" s="3">
         <v>3311</v>
       </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
@@ -1576,6 +1832,9 @@
       <c r="A104" s="3">
         <v>3312</v>
       </c>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
@@ -1587,6 +1846,9 @@
       <c r="A105" s="3">
         <v>3313</v>
       </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
@@ -1598,6 +1860,9 @@
       <c r="A106" s="3">
         <v>3314</v>
       </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
       <c r="C106" s="4">
         <v>1</v>
       </c>
@@ -1609,6 +1874,9 @@
       <c r="A107" s="3">
         <v>33151</v>
       </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
       <c r="C107" s="4">
         <v>1</v>
       </c>
@@ -1620,6 +1888,9 @@
       <c r="A108" s="3">
         <v>33152</v>
       </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
       <c r="C108" s="4">
         <v>1</v>
       </c>
@@ -1631,6 +1902,9 @@
       <c r="A109" s="3">
         <v>3321</v>
       </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
       <c r="C109" s="4">
         <v>1</v>
       </c>
@@ -1642,6 +1916,9 @@
       <c r="A110" s="3">
         <v>332215</v>
       </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
       <c r="C110" s="4">
         <v>1</v>
       </c>
@@ -1653,6 +1930,9 @@
       <c r="A111" s="3">
         <v>332216</v>
       </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
@@ -1664,6 +1944,9 @@
       <c r="A112" s="3">
         <v>33231</v>
       </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
@@ -1675,6 +1958,9 @@
       <c r="A113" s="3">
         <v>33232</v>
       </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
       <c r="C113" s="4">
         <v>1</v>
       </c>
@@ -1686,6 +1972,9 @@
       <c r="A114" s="3">
         <v>33241</v>
       </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
       <c r="C114" s="4">
         <v>1</v>
       </c>
@@ -1697,6 +1986,9 @@
       <c r="A115" s="3">
         <v>33242</v>
       </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
       <c r="C115" s="4">
         <v>1</v>
       </c>
@@ -1708,6 +2000,9 @@
       <c r="A116" s="3">
         <v>33243</v>
       </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
@@ -1719,6 +2014,9 @@
       <c r="A117" s="3">
         <v>3325</v>
       </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
       <c r="C117" s="4">
         <v>1</v>
       </c>
@@ -1730,6 +2028,9 @@
       <c r="A118" s="3">
         <v>3326</v>
       </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
       <c r="C118" s="4">
         <v>1</v>
       </c>
@@ -1741,6 +2042,9 @@
       <c r="A119" s="3">
         <v>3327</v>
       </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
       <c r="C119" s="4">
         <v>1</v>
       </c>
@@ -1752,6 +2056,9 @@
       <c r="A120" s="3">
         <v>3328</v>
       </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
       <c r="C120" s="4">
         <v>1</v>
       </c>
@@ -1763,6 +2070,9 @@
       <c r="A121" s="3">
         <v>332911</v>
       </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
       <c r="C121" s="4">
         <v>1</v>
       </c>
@@ -1774,6 +2084,9 @@
       <c r="A122" s="3">
         <v>332912</v>
       </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
       <c r="C122" s="4">
         <v>1</v>
       </c>
@@ -1785,6 +2098,9 @@
       <c r="A123" s="3">
         <v>332913</v>
       </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
       <c r="C123" s="4">
         <v>1</v>
       </c>
@@ -1796,6 +2112,9 @@
       <c r="A124" s="3">
         <v>332919</v>
       </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
       <c r="C124" s="4">
         <v>1</v>
       </c>
@@ -1807,6 +2126,9 @@
       <c r="A125" s="3">
         <v>332991</v>
       </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
       <c r="C125" s="4">
         <v>1</v>
       </c>
@@ -1818,6 +2140,9 @@
       <c r="A126" s="3">
         <v>332996</v>
       </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
       <c r="C126" s="4">
         <v>1</v>
       </c>
@@ -1829,6 +2154,9 @@
       <c r="A127" s="3">
         <v>332999</v>
       </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
       <c r="C127" s="4">
         <v>1</v>
       </c>
@@ -1840,6 +2168,9 @@
       <c r="A128" s="3">
         <v>332992</v>
       </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
       <c r="C128" s="4">
         <v>1</v>
       </c>
@@ -1851,6 +2182,9 @@
       <c r="A129" s="3">
         <v>332993</v>
       </c>
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
       <c r="C129" s="4">
         <v>1</v>
       </c>
@@ -1862,6 +2196,9 @@
       <c r="A130" s="3">
         <v>332994</v>
       </c>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
       <c r="C130" s="4">
         <v>1</v>
       </c>
@@ -1887,11 +2224,23 @@
       <c r="A132" s="3">
         <v>333112</v>
       </c>
+      <c r="B132" s="4">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4">
+        <v>0</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>33312</v>
       </c>
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
@@ -1959,6 +2308,15 @@
       <c r="A138" s="3">
         <v>333244</v>
       </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
@@ -1992,16 +2350,37 @@
       <c r="A141" s="3">
         <v>333316</v>
       </c>
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>333318</v>
       </c>
+      <c r="B142" s="4">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>3334</v>
       </c>
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
       <c r="C143" s="4">
         <v>1</v>
       </c>
@@ -2013,6 +2392,9 @@
       <c r="A144" s="3">
         <v>333511</v>
       </c>
+      <c r="B144" s="4">
+        <v>0</v>
+      </c>
       <c r="C144" s="4">
         <v>1</v>
       </c>
@@ -2038,6 +2420,9 @@
       <c r="A146" s="3">
         <v>333515</v>
       </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
       <c r="C146" s="4">
         <v>1</v>
       </c>
@@ -2077,6 +2462,9 @@
       <c r="A149" s="3">
         <v>333611</v>
       </c>
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
       <c r="C149" s="4">
         <v>1</v>
       </c>
@@ -2130,6 +2518,9 @@
       <c r="A153" s="3">
         <v>33391</v>
       </c>
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
       <c r="C153" s="4">
         <v>1</v>
       </c>
@@ -2155,6 +2546,9 @@
       <c r="A155" s="3">
         <v>333991</v>
       </c>
+      <c r="B155" s="4">
+        <v>0</v>
+      </c>
       <c r="C155" s="4">
         <v>1</v>
       </c>
@@ -2166,6 +2560,9 @@
       <c r="A156" s="3">
         <v>333992</v>
       </c>
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
       <c r="C156" s="4">
         <v>1</v>
       </c>
@@ -2191,6 +2588,12 @@
       <c r="A158" s="3">
         <v>333994</v>
       </c>
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
       <c r="D158" s="4">
         <v>1</v>
       </c>
@@ -2311,6 +2714,9 @@
       <c r="A167" s="3">
         <v>3343</v>
       </c>
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
       <c r="C167" s="4">
         <v>1</v>
       </c>
@@ -2364,6 +2770,15 @@
       <c r="A171" s="3">
         <v>334512</v>
       </c>
+      <c r="B171" s="4">
+        <v>0</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
@@ -2397,6 +2812,15 @@
       <c r="A174" s="3">
         <v>334515</v>
       </c>
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
@@ -2430,6 +2854,9 @@
       <c r="A177" s="3">
         <v>334519</v>
       </c>
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
       <c r="C177" s="4">
         <v>1</v>
       </c>
@@ -2441,11 +2868,23 @@
       <c r="A178" s="3">
         <v>3346</v>
       </c>
+      <c r="B178" s="4">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
         <v>33511</v>
       </c>
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
       <c r="C179" s="4">
         <v>1</v>
       </c>
@@ -2457,6 +2896,9 @@
       <c r="A180" s="3">
         <v>33512</v>
       </c>
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
       <c r="C180" s="4">
         <v>1</v>
       </c>
@@ -2468,6 +2910,9 @@
       <c r="A181" s="3">
         <v>3352</v>
       </c>
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
       <c r="C181" s="4">
         <v>1</v>
       </c>
@@ -2479,6 +2924,9 @@
       <c r="A182" s="3">
         <v>335311</v>
       </c>
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
       <c r="C182" s="4">
         <v>1</v>
       </c>
@@ -2490,11 +2938,23 @@
       <c r="A183" s="3">
         <v>335312</v>
       </c>
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0</v>
+      </c>
+      <c r="D183" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
         <v>335313</v>
       </c>
+      <c r="B184" s="4">
+        <v>0</v>
+      </c>
       <c r="C184" s="4">
         <v>1</v>
       </c>
@@ -2506,6 +2966,15 @@
       <c r="A185" s="3">
         <v>335314</v>
       </c>
+      <c r="B185" s="4">
+        <v>0</v>
+      </c>
+      <c r="C185" s="4">
+        <v>0</v>
+      </c>
+      <c r="D185" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
@@ -2525,6 +2994,9 @@
       <c r="A187" s="3">
         <v>335912</v>
       </c>
+      <c r="B187" s="4">
+        <v>0</v>
+      </c>
       <c r="C187" s="4">
         <v>1</v>
       </c>
@@ -2550,6 +3022,9 @@
       <c r="A189" s="3">
         <v>33593</v>
       </c>
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
       <c r="C189" s="4">
         <v>1</v>
       </c>
@@ -2813,6 +3288,9 @@
       <c r="A208" s="3">
         <v>33711</v>
       </c>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
       <c r="C208" s="4">
         <v>1</v>
       </c>
@@ -2824,16 +3302,37 @@
       <c r="A209" s="3">
         <v>33712</v>
       </c>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0</v>
+      </c>
+      <c r="D209" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
         <v>337211</v>
       </c>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0</v>
+      </c>
+      <c r="D210" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="3">
         <v>337212</v>
       </c>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
       <c r="C211" s="4">
         <v>1</v>
       </c>
@@ -2845,16 +3344,43 @@
       <c r="A212" s="3">
         <v>337214</v>
       </c>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4">
+        <v>0</v>
+      </c>
+      <c r="D212" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="3">
         <v>337215</v>
       </c>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+      <c r="C213" s="4">
+        <v>0</v>
+      </c>
+      <c r="D213" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
         <v>3379</v>
       </c>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
+      <c r="C214" s="4">
+        <v>0</v>
+      </c>
+      <c r="D214" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
@@ -2874,46 +3400,121 @@
       <c r="A216" s="3">
         <v>33991</v>
       </c>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+      <c r="C216" s="4">
+        <v>0</v>
+      </c>
+      <c r="D216" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
         <v>33992</v>
       </c>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+      <c r="C217" s="4">
+        <v>0</v>
+      </c>
+      <c r="D217" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
         <v>33993</v>
       </c>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+      <c r="C218" s="4">
+        <v>0</v>
+      </c>
+      <c r="D218" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
         <v>33994</v>
       </c>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+      <c r="C219" s="4">
+        <v>0</v>
+      </c>
+      <c r="D219" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
         <v>33995</v>
       </c>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0</v>
+      </c>
+      <c r="D220" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
         <v>339991</v>
       </c>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+      <c r="C221" s="4">
+        <v>0</v>
+      </c>
+      <c r="D221" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
         <v>339992</v>
       </c>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+      <c r="C222" s="4">
+        <v>0</v>
+      </c>
+      <c r="D222" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
         <v>339993</v>
       </c>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
+      <c r="C223" s="4">
+        <v>0</v>
+      </c>
+      <c r="D223" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
         <v>339994</v>
       </c>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
       <c r="C224" s="4">
         <v>1</v>
       </c>
@@ -2925,6 +3526,9 @@
       <c r="A225" s="3">
         <v>339995</v>
       </c>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
       <c r="C225" s="4">
         <v>1</v>
       </c>
@@ -2936,6 +3540,15 @@
       <c r="A226" s="3">
         <v>339999</v>
       </c>
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+      <c r="C226" s="4">
+        <v>0</v>
+      </c>
+      <c r="D226" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
@@ -2997,11 +3610,23 @@
       <c r="A231" s="3">
         <v>4232</v>
       </c>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+      <c r="C231" s="4">
+        <v>0</v>
+      </c>
+      <c r="D231" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
         <v>4233</v>
       </c>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
       <c r="C232" s="4">
         <v>1</v>
       </c>
@@ -3013,11 +3638,29 @@
       <c r="A233" s="3">
         <v>42341</v>
       </c>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
+      <c r="C233" s="4">
+        <v>0</v>
+      </c>
+      <c r="D233" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
         <v>42342</v>
       </c>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+      <c r="C234" s="4">
+        <v>0</v>
+      </c>
+      <c r="D234" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
@@ -3037,6 +3680,15 @@
       <c r="A236" s="3">
         <v>42344</v>
       </c>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
@@ -3056,6 +3708,9 @@
       <c r="A238" s="3">
         <v>42346</v>
       </c>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
       <c r="C238" s="4">
         <v>1</v>
       </c>
@@ -3067,11 +3722,23 @@
       <c r="A239" s="3">
         <v>42349</v>
       </c>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
+      <c r="C239" s="4">
+        <v>0</v>
+      </c>
+      <c r="D239" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
         <v>42351</v>
       </c>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
       <c r="C240" s="4">
         <v>1</v>
       </c>
@@ -3083,6 +3750,9 @@
       <c r="A241" s="3">
         <v>42352</v>
       </c>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
       <c r="C241" s="4">
         <v>1</v>
       </c>
@@ -3094,6 +3764,9 @@
       <c r="A242" s="3">
         <v>42361</v>
       </c>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
       <c r="C242" s="4">
         <v>1</v>
       </c>
@@ -3105,6 +3778,9 @@
       <c r="A243" s="3">
         <v>42362</v>
       </c>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
       <c r="C243" s="4">
         <v>1</v>
       </c>
@@ -3130,6 +3806,9 @@
       <c r="A245" s="3">
         <v>42371</v>
       </c>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
       <c r="C245" s="4">
         <v>1</v>
       </c>
@@ -3141,6 +3820,9 @@
       <c r="A246" s="3">
         <v>42372</v>
       </c>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
       <c r="C246" s="4">
         <v>1</v>
       </c>
@@ -3152,6 +3834,9 @@
       <c r="A247" s="3">
         <v>42373</v>
       </c>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
       <c r="C247" s="4">
         <v>1</v>
       </c>
@@ -3163,6 +3848,9 @@
       <c r="A248" s="3">
         <v>42374</v>
       </c>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
       <c r="C248" s="4">
         <v>1</v>
       </c>
@@ -3174,6 +3862,9 @@
       <c r="A249" s="3">
         <v>42381</v>
       </c>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
       <c r="C249" s="4">
         <v>1</v>
       </c>
@@ -3227,6 +3918,15 @@
       <c r="A253" s="3">
         <v>42385</v>
       </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+      <c r="C253" s="4">
+        <v>0</v>
+      </c>
+      <c r="D253" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
@@ -3246,26 +3946,65 @@
       <c r="A255" s="3">
         <v>42391</v>
       </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+      <c r="C255" s="4">
+        <v>0</v>
+      </c>
+      <c r="D255" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
         <v>42392</v>
       </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+      <c r="C256" s="4">
+        <v>0</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
         <v>42393</v>
       </c>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+      <c r="C257" s="4">
+        <v>0</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
         <v>42394</v>
       </c>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+      <c r="C258" s="4">
+        <v>0</v>
+      </c>
+      <c r="D258" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
         <v>42399</v>
       </c>
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
       <c r="C259" s="4">
         <v>1</v>
       </c>
@@ -3333,6 +4072,15 @@
       <c r="A264" s="3">
         <v>4243</v>
       </c>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+      <c r="C264" s="4">
+        <v>0</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
@@ -3450,6 +4198,12 @@
       <c r="A273" s="3">
         <v>42493</v>
       </c>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
+      <c r="C273" s="4">
+        <v>0</v>
+      </c>
       <c r="D273" s="4">
         <v>1</v>
       </c>
@@ -3458,11 +4212,23 @@
       <c r="A274" s="3">
         <v>42494</v>
       </c>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+      <c r="C274" s="4">
+        <v>0</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
         <v>42495</v>
       </c>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
       <c r="C275" s="4">
         <v>1</v>
       </c>
@@ -3474,16 +4240,40 @@
       <c r="A276" s="3">
         <v>42499</v>
       </c>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+      <c r="C276" s="4">
+        <v>0</v>
+      </c>
+      <c r="D276" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
         <v>4251</v>
       </c>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+      <c r="C277" s="4">
+        <v>0</v>
+      </c>
+      <c r="D277" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
         <v>4411</v>
       </c>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+      <c r="C278" s="4">
+        <v>0</v>
+      </c>
       <c r="D278" s="4">
         <v>1</v>
       </c>
@@ -3492,6 +4282,12 @@
       <c r="A279" s="3">
         <v>44121</v>
       </c>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+      <c r="C279" s="4">
+        <v>0</v>
+      </c>
       <c r="D279" s="4">
         <v>1</v>
       </c>
@@ -3500,6 +4296,12 @@
       <c r="A280" s="3">
         <v>441222</v>
       </c>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+      <c r="C280" s="4">
+        <v>0</v>
+      </c>
       <c r="D280" s="4">
         <v>1</v>
       </c>
@@ -3508,6 +4310,12 @@
       <c r="A281" s="3">
         <v>441228</v>
       </c>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+      <c r="C281" s="4">
+        <v>0</v>
+      </c>
       <c r="D281" s="4">
         <v>1</v>
       </c>
@@ -3530,16 +4338,37 @@
       <c r="A283" s="3">
         <v>4421</v>
       </c>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
+      <c r="C283" s="4">
+        <v>0</v>
+      </c>
+      <c r="D283" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
         <v>4422</v>
       </c>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+      <c r="C284" s="4">
+        <v>0</v>
+      </c>
+      <c r="D284" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
         <v>443141</v>
       </c>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
       <c r="C285" s="4">
         <v>1</v>
       </c>
@@ -3551,6 +4380,9 @@
       <c r="A286" s="3">
         <v>443142</v>
       </c>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
       <c r="C286" s="4">
         <v>1</v>
       </c>
@@ -3562,6 +4394,9 @@
       <c r="A287" s="3">
         <v>44411</v>
       </c>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
       <c r="C287" s="4">
         <v>1</v>
       </c>
@@ -3573,6 +4408,9 @@
       <c r="A288" s="3">
         <v>44412</v>
       </c>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
       <c r="C288" s="4">
         <v>1</v>
       </c>
@@ -3584,6 +4422,9 @@
       <c r="A289" s="3">
         <v>44413</v>
       </c>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
       <c r="C289" s="4">
         <v>1</v>
       </c>
@@ -3595,6 +4436,9 @@
       <c r="A290" s="3">
         <v>44419</v>
       </c>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
       <c r="C290" s="4">
         <v>1</v>
       </c>
@@ -3606,6 +4450,15 @@
       <c r="A291" s="3">
         <v>44421</v>
       </c>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+      <c r="C291" s="4">
+        <v>0</v>
+      </c>
+      <c r="D291" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
@@ -3681,11 +4534,23 @@
       <c r="A297" s="3">
         <v>44612</v>
       </c>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0</v>
+      </c>
+      <c r="D297" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
         <v>44613</v>
       </c>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
       <c r="C298" s="4">
         <v>1</v>
       </c>
@@ -3697,6 +4562,9 @@
       <c r="A299" s="3">
         <v>446191</v>
       </c>
+      <c r="B299" s="4">
+        <v>0</v>
+      </c>
       <c r="C299" s="4">
         <v>1</v>
       </c>
@@ -3708,6 +4576,15 @@
       <c r="A300" s="3">
         <v>446199</v>
       </c>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+      <c r="C300" s="4">
+        <v>0</v>
+      </c>
+      <c r="D300" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
@@ -3727,41 +4604,113 @@
       <c r="A302" s="3">
         <v>4481</v>
       </c>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
+      <c r="C302" s="4">
+        <v>0</v>
+      </c>
+      <c r="D302" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
         <v>4482</v>
       </c>
+      <c r="B303" s="4">
+        <v>0</v>
+      </c>
+      <c r="C303" s="4">
+        <v>0</v>
+      </c>
+      <c r="D303" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
         <v>44831</v>
       </c>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
+      <c r="C304" s="4">
+        <v>0</v>
+      </c>
+      <c r="D304" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
         <v>44832</v>
       </c>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
+      <c r="C305" s="4">
+        <v>0</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
         <v>45111</v>
       </c>
+      <c r="B306" s="4">
+        <v>0</v>
+      </c>
+      <c r="C306" s="4">
+        <v>0</v>
+      </c>
+      <c r="D306" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
         <v>45112</v>
       </c>
+      <c r="B307" s="4">
+        <v>0</v>
+      </c>
+      <c r="C307" s="4">
+        <v>0</v>
+      </c>
+      <c r="D307" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
         <v>45113</v>
       </c>
+      <c r="B308" s="4">
+        <v>0</v>
+      </c>
+      <c r="C308" s="4">
+        <v>0</v>
+      </c>
+      <c r="D308" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
         <v>45114</v>
       </c>
+      <c r="B309" s="4">
+        <v>0</v>
+      </c>
+      <c r="C309" s="4">
+        <v>0</v>
+      </c>
+      <c r="D309" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
@@ -3781,6 +4730,15 @@
       <c r="A311" s="3">
         <v>4522</v>
       </c>
+      <c r="B311" s="4">
+        <v>0</v>
+      </c>
+      <c r="C311" s="4">
+        <v>0</v>
+      </c>
+      <c r="D311" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
@@ -3800,11 +4758,26 @@
       <c r="A313" s="3">
         <v>452319</v>
       </c>
+      <c r="B313" s="4">
+        <v>0</v>
+      </c>
+      <c r="C313" s="4">
+        <v>0</v>
+      </c>
+      <c r="D313" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
         <v>4531</v>
       </c>
+      <c r="B314" s="4">
+        <v>0</v>
+      </c>
+      <c r="C314" s="4">
+        <v>0</v>
+      </c>
       <c r="D314" s="4">
         <v>1</v>
       </c>
@@ -3827,16 +4800,37 @@
       <c r="A316" s="3">
         <v>45322</v>
       </c>
+      <c r="B316" s="4">
+        <v>0</v>
+      </c>
+      <c r="C316" s="4">
+        <v>0</v>
+      </c>
+      <c r="D316" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
         <v>4533</v>
       </c>
+      <c r="B317" s="4">
+        <v>0</v>
+      </c>
+      <c r="C317" s="4">
+        <v>0</v>
+      </c>
+      <c r="D317" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
         <v>45391</v>
       </c>
+      <c r="B318" s="4">
+        <v>0</v>
+      </c>
       <c r="C318" s="4">
         <v>1</v>
       </c>
@@ -3848,26 +4842,65 @@
       <c r="A319" s="3">
         <v>45392</v>
       </c>
+      <c r="B319" s="4">
+        <v>0</v>
+      </c>
+      <c r="C319" s="4">
+        <v>0</v>
+      </c>
+      <c r="D319" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
         <v>45393</v>
       </c>
+      <c r="B320" s="4">
+        <v>0</v>
+      </c>
+      <c r="C320" s="4">
+        <v>0</v>
+      </c>
+      <c r="D320" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
         <v>453991</v>
       </c>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
+      <c r="C321" s="4">
+        <v>0</v>
+      </c>
+      <c r="D321" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
         <v>453998</v>
       </c>
+      <c r="B322" s="4">
+        <v>0</v>
+      </c>
+      <c r="C322" s="4">
+        <v>0</v>
+      </c>
+      <c r="D322" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
         <v>4541</v>
       </c>
+      <c r="B323" s="4">
+        <v>0</v>
+      </c>
       <c r="C323" s="4">
         <v>1</v>
       </c>
@@ -3879,16 +4912,43 @@
       <c r="A324" s="3">
         <v>4542</v>
       </c>
+      <c r="B324" s="4">
+        <v>0</v>
+      </c>
+      <c r="C324" s="4">
+        <v>0</v>
+      </c>
+      <c r="D324" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
         <v>45431</v>
       </c>
+      <c r="B325" s="4">
+        <v>0</v>
+      </c>
+      <c r="C325" s="4">
+        <v>0</v>
+      </c>
+      <c r="D325" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
         <v>45439</v>
       </c>
+      <c r="B326" s="4">
+        <v>0</v>
+      </c>
+      <c r="C326" s="4">
+        <v>0</v>
+      </c>
+      <c r="D326" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
@@ -4048,6 +5108,9 @@
       <c r="A338" s="3">
         <v>4852</v>
       </c>
+      <c r="B338" s="4">
+        <v>0</v>
+      </c>
       <c r="C338" s="4">
         <v>1</v>
       </c>
@@ -4059,6 +5122,9 @@
       <c r="A339" s="3">
         <v>4853</v>
       </c>
+      <c r="B339" s="4">
+        <v>0</v>
+      </c>
       <c r="C339" s="4">
         <v>1</v>
       </c>
@@ -4070,11 +5136,23 @@
       <c r="A340" s="3">
         <v>4854</v>
       </c>
+      <c r="B340" s="4">
+        <v>0</v>
+      </c>
+      <c r="C340" s="4">
+        <v>0</v>
+      </c>
+      <c r="D340" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
         <v>4855</v>
       </c>
+      <c r="B341" s="4">
+        <v>0</v>
+      </c>
       <c r="C341" s="4">
         <v>1</v>
       </c>
@@ -4086,6 +5164,9 @@
       <c r="A342" s="3">
         <v>485991</v>
       </c>
+      <c r="B342" s="4">
+        <v>0</v>
+      </c>
       <c r="C342" s="4">
         <v>1</v>
       </c>
@@ -4097,6 +5178,15 @@
       <c r="A343" s="3">
         <v>485999</v>
       </c>
+      <c r="B343" s="4">
+        <v>0</v>
+      </c>
+      <c r="C343" s="4">
+        <v>0</v>
+      </c>
+      <c r="D343" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
@@ -4144,6 +5234,9 @@
       <c r="A347" s="3">
         <v>48699</v>
       </c>
+      <c r="B347" s="4">
+        <v>0</v>
+      </c>
       <c r="C347" s="4">
         <v>1</v>
       </c>
@@ -4155,16 +5248,43 @@
       <c r="A348" s="3">
         <v>4871</v>
       </c>
+      <c r="B348" s="4">
+        <v>0</v>
+      </c>
+      <c r="C348" s="4">
+        <v>0</v>
+      </c>
+      <c r="D348" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="3">
         <v>4872</v>
       </c>
+      <c r="B349" s="4">
+        <v>0</v>
+      </c>
+      <c r="C349" s="4">
+        <v>0</v>
+      </c>
+      <c r="D349" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="3">
         <v>4879</v>
       </c>
+      <c r="B350" s="4">
+        <v>0</v>
+      </c>
+      <c r="C350" s="4">
+        <v>0</v>
+      </c>
+      <c r="D350" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="3">
@@ -4366,11 +5486,29 @@
       <c r="A365" s="3">
         <v>51114</v>
       </c>
+      <c r="B365" s="4">
+        <v>0</v>
+      </c>
+      <c r="C365" s="4">
+        <v>0</v>
+      </c>
+      <c r="D365" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
         <v>51119</v>
       </c>
+      <c r="B366" s="4">
+        <v>0</v>
+      </c>
+      <c r="C366" s="4">
+        <v>0</v>
+      </c>
+      <c r="D366" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
@@ -4390,11 +5528,29 @@
       <c r="A368" s="3">
         <v>5121</v>
       </c>
+      <c r="B368" s="4">
+        <v>0</v>
+      </c>
+      <c r="C368" s="4">
+        <v>0</v>
+      </c>
+      <c r="D368" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="3">
         <v>5122</v>
       </c>
+      <c r="B369" s="4">
+        <v>0</v>
+      </c>
+      <c r="C369" s="4">
+        <v>0</v>
+      </c>
+      <c r="D369" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="3">
@@ -4498,6 +5654,15 @@
       <c r="A377" s="3">
         <v>51912</v>
       </c>
+      <c r="B377" s="4">
+        <v>0</v>
+      </c>
+      <c r="C377" s="4">
+        <v>0</v>
+      </c>
+      <c r="D377" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="3">
@@ -4517,6 +5682,15 @@
       <c r="A379" s="3">
         <v>51919</v>
       </c>
+      <c r="B379" s="4">
+        <v>0</v>
+      </c>
+      <c r="C379" s="4">
+        <v>0</v>
+      </c>
+      <c r="D379" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="3">
@@ -4564,6 +5738,9 @@
       <c r="A383" s="3">
         <v>52222</v>
       </c>
+      <c r="B383" s="4">
+        <v>0</v>
+      </c>
       <c r="C383" s="4">
         <v>1</v>
       </c>
@@ -4603,6 +5780,9 @@
       <c r="A386" s="3">
         <v>522293</v>
       </c>
+      <c r="B386" s="4">
+        <v>0</v>
+      </c>
       <c r="C386" s="4">
         <v>1</v>
       </c>
@@ -4628,6 +5808,9 @@
       <c r="A388" s="3">
         <v>522298</v>
       </c>
+      <c r="B388" s="4">
+        <v>0</v>
+      </c>
       <c r="C388" s="4">
         <v>1</v>
       </c>
@@ -4779,6 +5962,9 @@
       <c r="A399" s="3">
         <v>53111</v>
       </c>
+      <c r="B399" s="4">
+        <v>0</v>
+      </c>
       <c r="C399" s="4">
         <v>1</v>
       </c>
@@ -4790,21 +5976,51 @@
       <c r="A400" s="3">
         <v>53112</v>
       </c>
+      <c r="B400" s="4">
+        <v>0</v>
+      </c>
+      <c r="C400" s="4">
+        <v>0</v>
+      </c>
+      <c r="D400" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="3">
         <v>53113</v>
       </c>
+      <c r="B401" s="4">
+        <v>0</v>
+      </c>
+      <c r="C401" s="4">
+        <v>0</v>
+      </c>
+      <c r="D401" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="3">
         <v>53119</v>
       </c>
+      <c r="B402" s="4">
+        <v>0</v>
+      </c>
+      <c r="C402" s="4">
+        <v>0</v>
+      </c>
+      <c r="D402" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="3">
         <v>5312</v>
       </c>
+      <c r="B403" s="4">
+        <v>0</v>
+      </c>
       <c r="C403" s="4">
         <v>1</v>
       </c>
@@ -4816,6 +6032,9 @@
       <c r="A404" s="3">
         <v>53131</v>
       </c>
+      <c r="B404" s="4">
+        <v>0</v>
+      </c>
       <c r="C404" s="4">
         <v>1</v>
       </c>
@@ -4827,6 +6046,9 @@
       <c r="A405" s="3">
         <v>53132</v>
       </c>
+      <c r="B405" s="4">
+        <v>0</v>
+      </c>
       <c r="C405" s="4">
         <v>1</v>
       </c>
@@ -4838,6 +6060,9 @@
       <c r="A406" s="3">
         <v>53139</v>
       </c>
+      <c r="B406" s="4">
+        <v>0</v>
+      </c>
       <c r="C406" s="4">
         <v>1</v>
       </c>
@@ -4849,6 +6074,9 @@
       <c r="A407" s="3">
         <v>5321</v>
       </c>
+      <c r="B407" s="4">
+        <v>0</v>
+      </c>
       <c r="C407" s="4">
         <v>1</v>
       </c>
@@ -4860,41 +6088,107 @@
       <c r="A408" s="3">
         <v>53221</v>
       </c>
+      <c r="B408" s="4">
+        <v>0</v>
+      </c>
+      <c r="C408" s="4">
+        <v>0</v>
+      </c>
+      <c r="D408" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="3">
         <v>532281</v>
       </c>
+      <c r="B409" s="4">
+        <v>0</v>
+      </c>
+      <c r="C409" s="4">
+        <v>0</v>
+      </c>
+      <c r="D409" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="3">
         <v>532282</v>
       </c>
+      <c r="B410" s="4">
+        <v>0</v>
+      </c>
+      <c r="C410" s="4">
+        <v>0</v>
+      </c>
+      <c r="D410" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="3">
         <v>532283</v>
       </c>
+      <c r="B411" s="4">
+        <v>0</v>
+      </c>
+      <c r="C411" s="4">
+        <v>0</v>
+      </c>
+      <c r="D411" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="3">
         <v>532284</v>
       </c>
+      <c r="B412" s="4">
+        <v>0</v>
+      </c>
+      <c r="C412" s="4">
+        <v>0</v>
+      </c>
+      <c r="D412" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="3">
         <v>532289</v>
       </c>
+      <c r="B413" s="4">
+        <v>0</v>
+      </c>
+      <c r="C413" s="4">
+        <v>0</v>
+      </c>
+      <c r="D413" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="3">
         <v>5323</v>
       </c>
+      <c r="B414" s="4">
+        <v>0</v>
+      </c>
+      <c r="C414" s="4">
+        <v>0</v>
+      </c>
+      <c r="D414" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="3">
         <v>532411</v>
       </c>
+      <c r="B415" s="4">
+        <v>0</v>
+      </c>
       <c r="C415" s="4">
         <v>1</v>
       </c>
@@ -4906,26 +6200,65 @@
       <c r="A416" s="3">
         <v>532412</v>
       </c>
+      <c r="B416" s="4">
+        <v>0</v>
+      </c>
+      <c r="C416" s="4">
+        <v>0</v>
+      </c>
+      <c r="D416" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="3">
         <v>532420</v>
       </c>
+      <c r="B417" s="4">
+        <v>0</v>
+      </c>
+      <c r="C417" s="4">
+        <v>0</v>
+      </c>
+      <c r="D417" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="3">
         <v>532490</v>
       </c>
+      <c r="B418" s="4">
+        <v>0</v>
+      </c>
+      <c r="C418" s="4">
+        <v>0</v>
+      </c>
+      <c r="D418" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="3">
         <v>5331</v>
       </c>
+      <c r="B419" s="4">
+        <v>0</v>
+      </c>
+      <c r="C419" s="4">
+        <v>0</v>
+      </c>
+      <c r="D419" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="3">
         <v>54111</v>
       </c>
+      <c r="B420" s="4">
+        <v>0</v>
+      </c>
       <c r="C420" s="4">
         <v>1</v>
       </c>
@@ -4937,6 +6270,9 @@
       <c r="A421" s="3">
         <v>54112</v>
       </c>
+      <c r="B421" s="4">
+        <v>0</v>
+      </c>
       <c r="C421" s="4">
         <v>1</v>
       </c>
@@ -4948,6 +6284,9 @@
       <c r="A422" s="3">
         <v>54119</v>
       </c>
+      <c r="B422" s="4">
+        <v>0</v>
+      </c>
       <c r="C422" s="4">
         <v>1</v>
       </c>
@@ -4959,46 +6298,121 @@
       <c r="A423" s="3">
         <v>541211</v>
       </c>
+      <c r="B423" s="4">
+        <v>0</v>
+      </c>
+      <c r="C423" s="4">
+        <v>0</v>
+      </c>
+      <c r="D423" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="3">
         <v>541213</v>
       </c>
+      <c r="B424" s="4">
+        <v>0</v>
+      </c>
+      <c r="C424" s="4">
+        <v>0</v>
+      </c>
+      <c r="D424" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="3">
         <v>541214</v>
       </c>
+      <c r="B425" s="4">
+        <v>0</v>
+      </c>
+      <c r="C425" s="4">
+        <v>0</v>
+      </c>
+      <c r="D425" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="3">
         <v>541219</v>
       </c>
+      <c r="B426" s="4">
+        <v>0</v>
+      </c>
+      <c r="C426" s="4">
+        <v>0</v>
+      </c>
+      <c r="D426" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="3">
         <v>54131</v>
       </c>
+      <c r="B427" s="4">
+        <v>0</v>
+      </c>
+      <c r="C427" s="4">
+        <v>0</v>
+      </c>
+      <c r="D427" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="3">
         <v>54132</v>
       </c>
+      <c r="B428" s="4">
+        <v>0</v>
+      </c>
+      <c r="C428" s="4">
+        <v>0</v>
+      </c>
+      <c r="D428" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="3">
         <v>54133</v>
       </c>
+      <c r="B429" s="4">
+        <v>0</v>
+      </c>
+      <c r="C429" s="4">
+        <v>0</v>
+      </c>
+      <c r="D429" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="3">
         <v>54134</v>
       </c>
+      <c r="B430" s="4">
+        <v>0</v>
+      </c>
+      <c r="C430" s="4">
+        <v>0</v>
+      </c>
+      <c r="D430" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="3">
         <v>54135</v>
       </c>
+      <c r="B431" s="4">
+        <v>0</v>
+      </c>
       <c r="C431" s="4">
         <v>1</v>
       </c>
@@ -5010,36 +6424,99 @@
       <c r="A432" s="3">
         <v>54136</v>
       </c>
+      <c r="B432" s="4">
+        <v>0</v>
+      </c>
+      <c r="C432" s="4">
+        <v>0</v>
+      </c>
+      <c r="D432" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="3">
         <v>54137</v>
       </c>
+      <c r="B433" s="4">
+        <v>0</v>
+      </c>
+      <c r="C433" s="4">
+        <v>0</v>
+      </c>
+      <c r="D433" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="3">
         <v>54138</v>
       </c>
+      <c r="B434" s="4">
+        <v>0</v>
+      </c>
+      <c r="C434" s="4">
+        <v>0</v>
+      </c>
+      <c r="D434" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="3">
         <v>54141</v>
       </c>
+      <c r="B435" s="4">
+        <v>0</v>
+      </c>
+      <c r="C435" s="4">
+        <v>0</v>
+      </c>
+      <c r="D435" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="3">
         <v>54142</v>
       </c>
+      <c r="B436" s="4">
+        <v>0</v>
+      </c>
+      <c r="C436" s="4">
+        <v>0</v>
+      </c>
+      <c r="D436" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="3">
         <v>54143</v>
       </c>
+      <c r="B437" s="4">
+        <v>0</v>
+      </c>
+      <c r="C437" s="4">
+        <v>0</v>
+      </c>
+      <c r="D437" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="3">
         <v>54149</v>
       </c>
+      <c r="B438" s="4">
+        <v>0</v>
+      </c>
+      <c r="C438" s="4">
+        <v>0</v>
+      </c>
+      <c r="D438" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="3">
@@ -5101,16 +6578,43 @@
       <c r="A443" s="3">
         <v>541611</v>
       </c>
+      <c r="B443" s="4">
+        <v>0</v>
+      </c>
+      <c r="C443" s="4">
+        <v>0</v>
+      </c>
+      <c r="D443" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="3">
         <v>541612</v>
       </c>
+      <c r="B444" s="4">
+        <v>0</v>
+      </c>
+      <c r="C444" s="4">
+        <v>0</v>
+      </c>
+      <c r="D444" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="3">
         <v>541613</v>
       </c>
+      <c r="B445" s="4">
+        <v>0</v>
+      </c>
+      <c r="C445" s="4">
+        <v>0</v>
+      </c>
+      <c r="D445" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="3">
@@ -5130,6 +6634,15 @@
       <c r="A447" s="3">
         <v>541618</v>
       </c>
+      <c r="B447" s="4">
+        <v>0</v>
+      </c>
+      <c r="C447" s="4">
+        <v>0</v>
+      </c>
+      <c r="D447" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="3">
@@ -5149,6 +6662,15 @@
       <c r="A449" s="3">
         <v>54169</v>
       </c>
+      <c r="B449" s="4">
+        <v>0</v>
+      </c>
+      <c r="C449" s="4">
+        <v>0</v>
+      </c>
+      <c r="D449" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="3">
@@ -5168,61 +6690,169 @@
       <c r="A451" s="3">
         <v>54172</v>
       </c>
+      <c r="B451" s="4">
+        <v>0</v>
+      </c>
+      <c r="C451" s="4">
+        <v>0</v>
+      </c>
+      <c r="D451" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="3">
         <v>54181</v>
       </c>
+      <c r="B452" s="4">
+        <v>0</v>
+      </c>
+      <c r="C452" s="4">
+        <v>0</v>
+      </c>
+      <c r="D452" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="3">
         <v>54182</v>
       </c>
+      <c r="B453" s="4">
+        <v>0</v>
+      </c>
+      <c r="C453" s="4">
+        <v>0</v>
+      </c>
+      <c r="D453" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="3">
         <v>54183</v>
       </c>
+      <c r="B454" s="4">
+        <v>0</v>
+      </c>
+      <c r="C454" s="4">
+        <v>0</v>
+      </c>
+      <c r="D454" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="3">
         <v>54184</v>
       </c>
+      <c r="B455" s="4">
+        <v>0</v>
+      </c>
+      <c r="C455" s="4">
+        <v>0</v>
+      </c>
+      <c r="D455" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="3">
         <v>54185</v>
       </c>
+      <c r="B456" s="4">
+        <v>0</v>
+      </c>
+      <c r="C456" s="4">
+        <v>0</v>
+      </c>
+      <c r="D456" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="3">
         <v>54186</v>
       </c>
+      <c r="B457" s="4">
+        <v>0</v>
+      </c>
+      <c r="C457" s="4">
+        <v>0</v>
+      </c>
+      <c r="D457" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="3">
         <v>54187</v>
       </c>
+      <c r="B458" s="4">
+        <v>0</v>
+      </c>
+      <c r="C458" s="4">
+        <v>0</v>
+      </c>
+      <c r="D458" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="3">
         <v>54189</v>
       </c>
+      <c r="B459" s="4">
+        <v>0</v>
+      </c>
+      <c r="C459" s="4">
+        <v>0</v>
+      </c>
+      <c r="D459" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="3">
         <v>54191</v>
       </c>
+      <c r="B460" s="4">
+        <v>0</v>
+      </c>
+      <c r="C460" s="4">
+        <v>0</v>
+      </c>
+      <c r="D460" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="3">
         <v>54192</v>
       </c>
+      <c r="B461" s="4">
+        <v>0</v>
+      </c>
+      <c r="C461" s="4">
+        <v>0</v>
+      </c>
+      <c r="D461" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="3">
         <v>54193</v>
       </c>
+      <c r="B462" s="4">
+        <v>0</v>
+      </c>
+      <c r="C462" s="4">
+        <v>0</v>
+      </c>
+      <c r="D462" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="3">
@@ -5256,6 +6886,15 @@
       <c r="A465" s="3">
         <v>5611</v>
       </c>
+      <c r="B465" s="4">
+        <v>0</v>
+      </c>
+      <c r="C465" s="4">
+        <v>0</v>
+      </c>
+      <c r="D465" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="3">
@@ -5275,16 +6914,43 @@
       <c r="A467" s="3">
         <v>5613</v>
       </c>
+      <c r="B467" s="4">
+        <v>0</v>
+      </c>
+      <c r="C467" s="4">
+        <v>0</v>
+      </c>
+      <c r="D467" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="3">
         <v>56141</v>
       </c>
+      <c r="B468" s="4">
+        <v>0</v>
+      </c>
+      <c r="C468" s="4">
+        <v>0</v>
+      </c>
+      <c r="D468" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="3">
         <v>561421</v>
       </c>
+      <c r="B469" s="4">
+        <v>0</v>
+      </c>
+      <c r="C469" s="4">
+        <v>0</v>
+      </c>
+      <c r="D469" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="3">
@@ -5304,16 +6970,43 @@
       <c r="A471" s="3">
         <v>561431</v>
       </c>
+      <c r="B471" s="4">
+        <v>0</v>
+      </c>
+      <c r="C471" s="4">
+        <v>0</v>
+      </c>
+      <c r="D471" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="3">
         <v>561439</v>
       </c>
+      <c r="B472" s="4">
+        <v>0</v>
+      </c>
+      <c r="C472" s="4">
+        <v>0</v>
+      </c>
+      <c r="D472" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="3">
         <v>56144</v>
       </c>
+      <c r="B473" s="4">
+        <v>0</v>
+      </c>
+      <c r="C473" s="4">
+        <v>0</v>
+      </c>
+      <c r="D473" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="3">
@@ -5333,11 +7026,23 @@
       <c r="A475" s="3">
         <v>561491</v>
       </c>
+      <c r="B475" s="4">
+        <v>0</v>
+      </c>
+      <c r="C475" s="4">
+        <v>0</v>
+      </c>
+      <c r="D475" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="3">
         <v>561492</v>
       </c>
+      <c r="B476" s="4">
+        <v>0</v>
+      </c>
       <c r="C476" s="4">
         <v>1</v>
       </c>
@@ -5349,11 +7054,29 @@
       <c r="A477" s="3">
         <v>561499</v>
       </c>
+      <c r="B477" s="4">
+        <v>0</v>
+      </c>
+      <c r="C477" s="4">
+        <v>0</v>
+      </c>
+      <c r="D477" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="3">
         <v>5615</v>
       </c>
+      <c r="B478" s="4">
+        <v>0</v>
+      </c>
+      <c r="C478" s="4">
+        <v>0</v>
+      </c>
+      <c r="D478" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="3">
@@ -5415,6 +7138,9 @@
       <c r="A483" s="3">
         <v>56173</v>
       </c>
+      <c r="B483" s="4">
+        <v>0</v>
+      </c>
       <c r="C483" s="4">
         <v>1</v>
       </c>
@@ -5454,16 +7180,43 @@
       <c r="A486" s="3">
         <v>56191</v>
       </c>
+      <c r="B486" s="4">
+        <v>0</v>
+      </c>
+      <c r="C486" s="4">
+        <v>0</v>
+      </c>
+      <c r="D486" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="3">
         <v>56192</v>
       </c>
+      <c r="B487" s="4">
+        <v>0</v>
+      </c>
+      <c r="C487" s="4">
+        <v>0</v>
+      </c>
+      <c r="D487" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="3">
         <v>56199</v>
       </c>
+      <c r="B488" s="4">
+        <v>0</v>
+      </c>
+      <c r="C488" s="4">
+        <v>0</v>
+      </c>
+      <c r="D488" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="3">
@@ -5595,36 +7348,99 @@
       <c r="A498" s="3">
         <v>6114</v>
       </c>
+      <c r="B498" s="4">
+        <v>0</v>
+      </c>
+      <c r="C498" s="4">
+        <v>0</v>
+      </c>
+      <c r="D498" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="3">
         <v>611511</v>
       </c>
+      <c r="B499" s="4">
+        <v>0</v>
+      </c>
+      <c r="C499" s="4">
+        <v>0</v>
+      </c>
+      <c r="D499" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="3">
         <v>611512</v>
       </c>
+      <c r="B500" s="4">
+        <v>0</v>
+      </c>
+      <c r="C500" s="4">
+        <v>0</v>
+      </c>
+      <c r="D500" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="3">
         <v>611513</v>
       </c>
+      <c r="B501" s="4">
+        <v>0</v>
+      </c>
+      <c r="C501" s="4">
+        <v>0</v>
+      </c>
+      <c r="D501" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="3">
         <v>611519</v>
       </c>
+      <c r="B502" s="4">
+        <v>0</v>
+      </c>
+      <c r="C502" s="4">
+        <v>0</v>
+      </c>
+      <c r="D502" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="3">
         <v>6116</v>
       </c>
+      <c r="B503" s="4">
+        <v>0</v>
+      </c>
+      <c r="C503" s="4">
+        <v>0</v>
+      </c>
+      <c r="D503" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="3">
         <v>6117</v>
       </c>
+      <c r="B504" s="4">
+        <v>0</v>
+      </c>
+      <c r="C504" s="4">
+        <v>0</v>
+      </c>
+      <c r="D504" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="3">
@@ -5658,6 +7474,9 @@
       <c r="A507" s="3">
         <v>62131</v>
       </c>
+      <c r="B507" s="4">
+        <v>0</v>
+      </c>
       <c r="C507" s="4">
         <v>1</v>
       </c>
@@ -5669,6 +7488,9 @@
       <c r="A508" s="3">
         <v>62132</v>
       </c>
+      <c r="B508" s="4">
+        <v>0</v>
+      </c>
       <c r="C508" s="4">
         <v>1</v>
       </c>
@@ -5708,6 +7530,15 @@
       <c r="A511" s="3">
         <v>621391</v>
       </c>
+      <c r="B511" s="4">
+        <v>0</v>
+      </c>
+      <c r="C511" s="4">
+        <v>0</v>
+      </c>
+      <c r="D511" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="3">
@@ -5727,6 +7558,15 @@
       <c r="A513" s="3">
         <v>62141</v>
       </c>
+      <c r="B513" s="4">
+        <v>0</v>
+      </c>
+      <c r="C513" s="4">
+        <v>0</v>
+      </c>
+      <c r="D513" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="3">
@@ -5928,6 +7768,9 @@
       <c r="A528" s="3">
         <v>62412</v>
       </c>
+      <c r="B528" s="4">
+        <v>0</v>
+      </c>
       <c r="C528" s="4">
         <v>1</v>
       </c>
@@ -5981,6 +7824,9 @@
       <c r="A532" s="3">
         <v>6244</v>
       </c>
+      <c r="B532" s="4">
+        <v>0</v>
+      </c>
       <c r="C532" s="4">
         <v>1</v>
       </c>
@@ -5992,86 +7838,239 @@
       <c r="A533" s="3">
         <v>7111</v>
       </c>
+      <c r="B533" s="4">
+        <v>0</v>
+      </c>
+      <c r="C533" s="4">
+        <v>0</v>
+      </c>
+      <c r="D533" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="3">
         <v>7112</v>
       </c>
+      <c r="B534" s="4">
+        <v>0</v>
+      </c>
+      <c r="C534" s="4">
+        <v>0</v>
+      </c>
+      <c r="D534" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="3">
         <v>7113</v>
       </c>
+      <c r="B535" s="4">
+        <v>0</v>
+      </c>
+      <c r="C535" s="4">
+        <v>0</v>
+      </c>
+      <c r="D535" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="3">
         <v>7114</v>
       </c>
+      <c r="B536" s="4">
+        <v>0</v>
+      </c>
+      <c r="C536" s="4">
+        <v>0</v>
+      </c>
+      <c r="D536" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="3">
         <v>7115</v>
       </c>
+      <c r="B537" s="4">
+        <v>0</v>
+      </c>
+      <c r="C537" s="4">
+        <v>0</v>
+      </c>
+      <c r="D537" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="3">
         <v>7121</v>
       </c>
+      <c r="B538" s="4">
+        <v>0</v>
+      </c>
+      <c r="C538" s="4">
+        <v>0</v>
+      </c>
+      <c r="D538" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="3">
         <v>7131</v>
       </c>
+      <c r="B539" s="4">
+        <v>0</v>
+      </c>
+      <c r="C539" s="4">
+        <v>0</v>
+      </c>
+      <c r="D539" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="3">
         <v>7132</v>
       </c>
+      <c r="B540" s="4">
+        <v>0</v>
+      </c>
+      <c r="C540" s="4">
+        <v>0</v>
+      </c>
+      <c r="D540" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="3">
         <v>71391</v>
       </c>
+      <c r="B541" s="4">
+        <v>0</v>
+      </c>
+      <c r="C541" s="4">
+        <v>0</v>
+      </c>
+      <c r="D541" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="3">
         <v>71392</v>
       </c>
+      <c r="B542" s="4">
+        <v>0</v>
+      </c>
+      <c r="C542" s="4">
+        <v>0</v>
+      </c>
+      <c r="D542" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="3">
         <v>71393</v>
       </c>
+      <c r="B543" s="4">
+        <v>0</v>
+      </c>
+      <c r="C543" s="4">
+        <v>0</v>
+      </c>
+      <c r="D543" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="3">
         <v>71394</v>
       </c>
+      <c r="B544" s="4">
+        <v>0</v>
+      </c>
+      <c r="C544" s="4">
+        <v>0</v>
+      </c>
+      <c r="D544" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="3">
         <v>71395</v>
       </c>
+      <c r="B545" s="4">
+        <v>0</v>
+      </c>
+      <c r="C545" s="4">
+        <v>0</v>
+      </c>
+      <c r="D545" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="3">
         <v>71399</v>
       </c>
+      <c r="B546" s="4">
+        <v>0</v>
+      </c>
+      <c r="C546" s="4">
+        <v>0</v>
+      </c>
+      <c r="D546" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="3">
         <v>7211</v>
       </c>
+      <c r="B547" s="4">
+        <v>0</v>
+      </c>
+      <c r="C547" s="4">
+        <v>0</v>
+      </c>
+      <c r="D547" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="3">
         <v>7212</v>
       </c>
+      <c r="B548" s="4">
+        <v>0</v>
+      </c>
+      <c r="C548" s="4">
+        <v>0</v>
+      </c>
+      <c r="D548" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="3">
         <v>7213</v>
       </c>
+      <c r="B549" s="4">
+        <v>0</v>
+      </c>
+      <c r="C549" s="4">
+        <v>0</v>
+      </c>
+      <c r="D549" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="3">
@@ -6091,11 +8090,29 @@
       <c r="A551" s="3">
         <v>72232</v>
       </c>
+      <c r="B551" s="4">
+        <v>0</v>
+      </c>
+      <c r="C551" s="4">
+        <v>0</v>
+      </c>
+      <c r="D551" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="3">
         <v>72233</v>
       </c>
+      <c r="B552" s="4">
+        <v>0</v>
+      </c>
+      <c r="C552" s="4">
+        <v>0</v>
+      </c>
+      <c r="D552" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="3">
@@ -6115,6 +8132,9 @@
       <c r="A554" s="3">
         <v>811211</v>
       </c>
+      <c r="B554" s="4">
+        <v>0</v>
+      </c>
       <c r="C554" s="4">
         <v>1</v>
       </c>
@@ -6126,6 +8146,9 @@
       <c r="A555" s="3">
         <v>811212</v>
       </c>
+      <c r="B555" s="4">
+        <v>0</v>
+      </c>
       <c r="C555" s="4">
         <v>1</v>
       </c>
@@ -6151,6 +8174,9 @@
       <c r="A557" s="3">
         <v>811219</v>
       </c>
+      <c r="B557" s="4">
+        <v>0</v>
+      </c>
       <c r="C557" s="4">
         <v>1</v>
       </c>
@@ -6176,11 +8202,23 @@
       <c r="A559" s="3">
         <v>811411</v>
       </c>
+      <c r="B559" s="4">
+        <v>0</v>
+      </c>
+      <c r="C559" s="4">
+        <v>0</v>
+      </c>
+      <c r="D559" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="3">
         <v>811412</v>
       </c>
+      <c r="B560" s="4">
+        <v>0</v>
+      </c>
       <c r="C560" s="4">
         <v>1</v>
       </c>
@@ -6192,16 +8230,37 @@
       <c r="A561" s="3">
         <v>81142</v>
       </c>
+      <c r="B561" s="4">
+        <v>0</v>
+      </c>
+      <c r="C561" s="4">
+        <v>0</v>
+      </c>
+      <c r="D561" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="3">
         <v>81143</v>
       </c>
+      <c r="B562" s="4">
+        <v>0</v>
+      </c>
+      <c r="C562" s="4">
+        <v>0</v>
+      </c>
+      <c r="D562" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="3">
         <v>81149</v>
       </c>
+      <c r="B563" s="4">
+        <v>0</v>
+      </c>
       <c r="C563" s="4">
         <v>1</v>
       </c>
@@ -6213,16 +8272,43 @@
       <c r="A564" s="3">
         <v>81211</v>
       </c>
+      <c r="B564" s="4">
+        <v>0</v>
+      </c>
+      <c r="C564" s="4">
+        <v>0</v>
+      </c>
+      <c r="D564" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="3">
         <v>812191</v>
       </c>
+      <c r="B565" s="4">
+        <v>0</v>
+      </c>
+      <c r="C565" s="4">
+        <v>0</v>
+      </c>
+      <c r="D565" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="3">
         <v>812199</v>
       </c>
+      <c r="B566" s="4">
+        <v>0</v>
+      </c>
+      <c r="C566" s="4">
+        <v>0</v>
+      </c>
+      <c r="D566" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="3">
@@ -6242,6 +8328,9 @@
       <c r="A568" s="3">
         <v>8123</v>
       </c>
+      <c r="B568" s="4">
+        <v>0</v>
+      </c>
       <c r="C568" s="4">
         <v>1</v>
       </c>
@@ -6253,6 +8342,9 @@
       <c r="A569" s="3">
         <v>81291</v>
       </c>
+      <c r="B569" s="4">
+        <v>0</v>
+      </c>
       <c r="C569" s="4">
         <v>1</v>
       </c>
@@ -6264,211 +8356,127 @@
       <c r="A570" s="3">
         <v>81292</v>
       </c>
+      <c r="B570" s="4">
+        <v>0</v>
+      </c>
+      <c r="C570" s="4">
+        <v>0</v>
+      </c>
+      <c r="D570" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="3">
         <v>81293</v>
       </c>
+      <c r="B571" s="4">
+        <v>0</v>
+      </c>
+      <c r="C571" s="4">
+        <v>0</v>
+      </c>
+      <c r="D571" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="3">
         <v>81299</v>
       </c>
+      <c r="B572" s="4">
+        <v>0</v>
+      </c>
+      <c r="C572" s="4">
+        <v>0</v>
+      </c>
+      <c r="D572" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="3">
         <v>8131</v>
       </c>
+      <c r="B573" s="4">
+        <v>0</v>
+      </c>
+      <c r="C573" s="4">
+        <v>0</v>
+      </c>
+      <c r="D573" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="3">
         <v>8132</v>
       </c>
+      <c r="B574" s="4">
+        <v>0</v>
+      </c>
+      <c r="C574" s="4">
+        <v>0</v>
+      </c>
+      <c r="D574" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="3">
         <v>8133</v>
       </c>
+      <c r="B575" s="4">
+        <v>0</v>
+      </c>
+      <c r="C575" s="4">
+        <v>0</v>
+      </c>
+      <c r="D575" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="3">
         <v>8134</v>
       </c>
+      <c r="B576" s="4">
+        <v>0</v>
+      </c>
+      <c r="C576" s="4">
+        <v>0</v>
+      </c>
+      <c r="D576" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="3">
         <v>8139</v>
       </c>
+      <c r="B577" s="4">
+        <v>0</v>
+      </c>
+      <c r="C577" s="4">
+        <v>0</v>
+      </c>
+      <c r="D577" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="3">
         <v>8141</v>
       </c>
+      <c r="B578" s="4">
+        <v>0</v>
+      </c>
       <c r="C578" s="4">
         <v>1</v>
       </c>
       <c r="D578" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A579" s="3"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A580" s="3"/>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A582" s="3"/>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A583" s="3"/>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A584" s="3"/>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A585" s="3"/>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A586" s="3"/>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A587" s="3"/>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A588" s="3"/>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A589" s="3"/>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A590" s="3"/>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A591" s="3"/>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A592" s="3"/>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A593" s="3"/>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A594" s="3"/>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A595" s="3"/>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A596" s="3"/>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A597" s="3"/>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A598" s="3"/>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A599" s="3"/>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A600" s="3"/>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A601" s="3"/>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A602" s="3"/>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A603" s="3"/>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A604" s="3"/>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A605" s="3"/>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A606" s="3"/>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A607" s="3"/>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A608" s="3"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A609" s="3"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A610" s="3"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A611" s="3"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A612" s="3"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A613" s="3"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A614" s="3"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A615" s="3"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A616" s="3"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A617" s="3"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A618" s="3"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A619" s="3"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A620" s="3"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A621" s="3"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A622" s="3"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A623" s="3"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A624" s="3"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A625" s="3"/>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A626" s="3"/>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A627" s="3"/>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A628" s="3"/>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A629" s="3"/>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A630" s="3"/>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A631" s="3"/>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A632" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
